--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E61B610C-7B14-4368-B464-878F275764C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF5E66A9-D800-4153-8767-51C6C5FDD12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{34825B7C-BBC5-4F5E-9FFC-680B7C357509}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5429DEDC-0609-4A6D-BD14-E6C69306B928}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-KG-kadastr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-KG-kadastr'!$A$1:$BS$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-KG-kadastr'!$A$1:$BS$77</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="392">
   <si>
     <t>objectURI</t>
   </si>
@@ -1009,6 +1009,24 @@
     <t>GRONDEIGENDOM_RIJK_LANDBOUW</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ef5935da-2462-4b8d-aedb-c68afb4541e4</t>
+  </si>
+  <si>
+    <t>BEHEERGRENS_RIJK_RWS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/663bd9c1-403d-4873-a978-780642513e44</t>
+  </si>
+  <si>
+    <t>KG-BGRIJKRWS-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1f049ab6-704a-4f5d-8714-5ecf078dd7ac</t>
+  </si>
+  <si>
+    <t>V-KG-BGRIJKRWS-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/2f577e46-5fe7-4182-a0f6-c9af3f5bb82b</t>
   </si>
   <si>
@@ -1114,16 +1132,73 @@
     <t>KADASTRAAL_PAND</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ef5935da-2462-4b8d-aedb-c68afb4541e4</t>
-  </si>
-  <si>
-    <t>BEHEERGRENS_RIJK_RWS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/663bd9c1-403d-4873-a978-780642513e44</t>
-  </si>
-  <si>
-    <t>KG-BGRIJKRWS-SO</t>
+    <t>204,100,110</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/9b3baec0-28a3-459f-95f6-d92e9aae5e7f</t>
+  </si>
+  <si>
+    <t>LANDMETEN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dea49a8d-2819-44ee-8a10-8f77daf3548c</t>
+  </si>
+  <si>
+    <t>LANDMETEN_METING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/edd14cb2-9453-4180-bb37-645a41ec7b2f</t>
+  </si>
+  <si>
+    <t>LANDMETEN_MEETPUNT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cc655fdf-8506-4a9b-896e-8d7e54729dd2</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b1d5bd89-cd33-40fb-a4ef-399585c376cf</t>
+  </si>
+  <si>
+    <t>LANDMETEN_PUNT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c8f08443-3abf-4bc1-bf27-ed30c6d0b07e</t>
+  </si>
+  <si>
+    <t>LANDMETEN_COGOPOINT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b18ce95e-3bb4-44df-bbf3-c0361795f4eb</t>
+  </si>
+  <si>
+    <t>LANDMETEN_MEETGRENS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bfa14e7f-9ccb-4f09-a7b1-d4c5c1b78a93</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_RASBAK</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e3581d73-ac80-4581-8d6a-1fd3b6151e27</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_AS SPOOR</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3f630d5b-747d-46cf-bcfa-cf69eb5acc7d</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_SMEERINSTALLATIE</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/441a66d7-7fea-42d7-a98c-2651282dd71a</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_AFWATERINGSBAK</t>
   </si>
 </sst>
 </file>
@@ -1983,16 +2058,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C547AB86-6D52-4FA8-9A18-6E77756F2F15}">
-  <dimension ref="A1:BS66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C26A9E-18F6-43D3-B833-E38A345E8A78}">
+  <dimension ref="A1:BS77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="BA37" sqref="BA37"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -2224,7 +2299,7 @@
         <v>572</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
         <v>75</v>
@@ -2269,10 +2344,10 @@
         <v>253</v>
       </c>
       <c r="V2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="W2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="X2" t="s">
         <v>84</v>
@@ -2311,10 +2386,10 @@
         <v>253</v>
       </c>
       <c r="AJ2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AK2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AL2" t="s">
         <v>84</v>
@@ -2353,10 +2428,10 @@
         <v>253</v>
       </c>
       <c r="AX2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AY2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AZ2" t="s">
         <v>84</v>
@@ -2395,10 +2470,10 @@
         <v>253</v>
       </c>
       <c r="BL2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="BM2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
@@ -3191,7 +3266,7 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -3203,7 +3278,7 @@
         <v>578</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
         <v>219</v>
@@ -3254,10 +3329,10 @@
         <v>253</v>
       </c>
       <c r="V7" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="W7" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="X7" t="s">
         <v>84</v>
@@ -3296,10 +3371,10 @@
         <v>253</v>
       </c>
       <c r="AJ7" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AK7" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="AL7" t="s">
         <v>84</v>
@@ -3338,10 +3413,52 @@
         <v>253</v>
       </c>
       <c r="AX7" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AY7" t="s">
-        <v>366</v>
+        <v>331</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC7">
+        <v>170</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE7">
+        <v>172</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG7">
+        <v>170</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI7">
+        <v>170</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK7">
+        <v>253</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
@@ -3555,7 +3672,7 @@
         <v>586</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H9" t="s">
         <v>75</v>
@@ -3600,10 +3717,10 @@
         <v>253</v>
       </c>
       <c r="V9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="W9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="X9" t="s">
         <v>84</v>
@@ -3642,10 +3759,10 @@
         <v>253</v>
       </c>
       <c r="AJ9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AK9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AL9" t="s">
         <v>84</v>
@@ -3684,10 +3801,10 @@
         <v>253</v>
       </c>
       <c r="AX9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AY9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AZ9" t="s">
         <v>84</v>
@@ -3726,10 +3843,10 @@
         <v>253</v>
       </c>
       <c r="BL9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="BM9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
@@ -4522,7 +4639,7 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -4534,7 +4651,7 @@
         <v>592</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
         <v>238</v>
@@ -4585,10 +4702,10 @@
         <v>253</v>
       </c>
       <c r="V14" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="W14" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="X14" t="s">
         <v>84</v>
@@ -4627,10 +4744,10 @@
         <v>253</v>
       </c>
       <c r="AJ14" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AK14" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AL14" t="s">
         <v>84</v>
@@ -4669,10 +4786,10 @@
         <v>253</v>
       </c>
       <c r="AX14" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AY14" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AZ14" t="s">
         <v>84</v>
@@ -4711,10 +4828,10 @@
         <v>253</v>
       </c>
       <c r="BL14" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="BM14" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
@@ -4928,7 +5045,7 @@
         <v>557</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -11423,7 +11540,7 @@
         <v>593</v>
       </c>
       <c r="E49" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H49" t="s">
         <v>75</v>
@@ -11468,10 +11585,10 @@
         <v>253</v>
       </c>
       <c r="V49" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="W49" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="X49" t="s">
         <v>84</v>
@@ -11510,10 +11627,10 @@
         <v>253</v>
       </c>
       <c r="AJ49" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AK49" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s">
         <v>84</v>
@@ -11552,10 +11669,10 @@
         <v>253</v>
       </c>
       <c r="AX49" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AY49" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AZ49" t="s">
         <v>84</v>
@@ -11594,10 +11711,10 @@
         <v>253</v>
       </c>
       <c r="BL49" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="BM49" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.35">
@@ -13178,7 +13295,7 @@
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -13190,7 +13307,7 @@
         <v>4035</v>
       </c>
       <c r="E58" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F58" t="s">
         <v>90</v>
@@ -13203,6 +13320,45 @@
       </c>
       <c r="I58" t="s">
         <v>76</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s">
+        <v>78</v>
+      </c>
+      <c r="L58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58">
+        <v>170</v>
+      </c>
+      <c r="N58" t="s">
+        <v>93</v>
+      </c>
+      <c r="O58">
+        <v>172</v>
+      </c>
+      <c r="P58" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q58">
+        <v>170</v>
+      </c>
+      <c r="R58" t="s">
+        <v>92</v>
+      </c>
+      <c r="S58">
+        <v>170</v>
+      </c>
+      <c r="U58" t="s">
+        <v>369</v>
+      </c>
+      <c r="V58" t="s">
+        <v>82</v>
+      </c>
+      <c r="W58" t="s">
+        <v>83</v>
       </c>
       <c r="X58" t="s">
         <v>84</v>
@@ -13530,7 +13686,7 @@
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
@@ -13538,190 +13694,13 @@
       <c r="C60" t="s">
         <v>73</v>
       </c>
-      <c r="D60">
-        <v>579</v>
-      </c>
       <c r="E60" t="s">
-        <v>356</v>
-      </c>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s">
-        <v>78</v>
-      </c>
-      <c r="L60" t="s">
-        <v>92</v>
-      </c>
-      <c r="M60">
-        <v>170</v>
-      </c>
-      <c r="N60" t="s">
-        <v>93</v>
-      </c>
-      <c r="O60">
-        <v>172</v>
-      </c>
-      <c r="P60" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q60">
-        <v>170</v>
-      </c>
-      <c r="R60" t="s">
-        <v>92</v>
-      </c>
-      <c r="S60">
-        <v>170</v>
-      </c>
-      <c r="T60" t="s">
-        <v>81</v>
-      </c>
-      <c r="U60">
-        <v>253</v>
-      </c>
-      <c r="V60" t="s">
-        <v>357</v>
-      </c>
-      <c r="W60" t="s">
-        <v>358</v>
-      </c>
-      <c r="X60" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA60">
-        <v>170</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC60">
-        <v>172</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE60">
-        <v>170</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG60">
-        <v>170</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI60">
-        <v>253</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO60">
-        <v>170</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ60">
-        <v>172</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS60">
-        <v>170</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU60">
-        <v>170</v>
-      </c>
-      <c r="AV60" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW60">
-        <v>253</v>
-      </c>
-      <c r="AX60" t="s">
-        <v>357</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>358</v>
-      </c>
-      <c r="AZ60" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA60" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB60" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC60">
-        <v>170</v>
-      </c>
-      <c r="BD60" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE60">
-        <v>172</v>
-      </c>
-      <c r="BF60" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG60">
-        <v>170</v>
-      </c>
-      <c r="BH60" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI60">
-        <v>170</v>
-      </c>
-      <c r="BJ60" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK60">
-        <v>253</v>
-      </c>
-      <c r="BL60" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -13729,196 +13708,13 @@
       <c r="C61" t="s">
         <v>73</v>
       </c>
-      <c r="D61">
-        <v>581</v>
-      </c>
       <c r="E61" t="s">
-        <v>311</v>
-      </c>
-      <c r="F61" t="s">
-        <v>287</v>
-      </c>
-      <c r="G61">
-        <v>579</v>
-      </c>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" t="s">
-        <v>92</v>
-      </c>
-      <c r="M61">
-        <v>170</v>
-      </c>
-      <c r="N61" t="s">
-        <v>93</v>
-      </c>
-      <c r="O61">
-        <v>172</v>
-      </c>
-      <c r="P61" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q61">
-        <v>170</v>
-      </c>
-      <c r="R61" t="s">
-        <v>92</v>
-      </c>
-      <c r="S61">
-        <v>170</v>
-      </c>
-      <c r="T61" t="s">
-        <v>81</v>
-      </c>
-      <c r="U61">
-        <v>253</v>
-      </c>
-      <c r="V61" t="s">
-        <v>312</v>
-      </c>
-      <c r="W61" t="s">
-        <v>313</v>
-      </c>
-      <c r="X61" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA61">
-        <v>170</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC61">
-        <v>172</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE61">
-        <v>170</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG61">
-        <v>170</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI61">
-        <v>253</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>312</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>313</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO61">
-        <v>170</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ61">
-        <v>172</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS61">
-        <v>170</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU61">
-        <v>170</v>
-      </c>
-      <c r="AV61" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW61">
-        <v>253</v>
-      </c>
-      <c r="AX61" t="s">
-        <v>312</v>
-      </c>
-      <c r="AY61" t="s">
-        <v>313</v>
-      </c>
-      <c r="AZ61" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA61" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB61" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC61">
-        <v>170</v>
-      </c>
-      <c r="BD61" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE61">
-        <v>172</v>
-      </c>
-      <c r="BF61" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG61">
-        <v>170</v>
-      </c>
-      <c r="BH61" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI61">
-        <v>170</v>
-      </c>
-      <c r="BJ61" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK61">
-        <v>253</v>
-      </c>
-      <c r="BL61" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -13926,196 +13722,13 @@
       <c r="C62" t="s">
         <v>73</v>
       </c>
-      <c r="D62">
-        <v>582</v>
-      </c>
       <c r="E62" t="s">
-        <v>286</v>
-      </c>
-      <c r="F62" t="s">
-        <v>287</v>
-      </c>
-      <c r="G62">
-        <v>579</v>
-      </c>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s">
-        <v>78</v>
-      </c>
-      <c r="L62" t="s">
-        <v>92</v>
-      </c>
-      <c r="M62">
-        <v>170</v>
-      </c>
-      <c r="N62" t="s">
-        <v>93</v>
-      </c>
-      <c r="O62">
-        <v>172</v>
-      </c>
-      <c r="P62" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q62">
-        <v>170</v>
-      </c>
-      <c r="R62" t="s">
-        <v>92</v>
-      </c>
-      <c r="S62">
-        <v>170</v>
-      </c>
-      <c r="T62" t="s">
-        <v>81</v>
-      </c>
-      <c r="U62">
-        <v>253</v>
-      </c>
-      <c r="V62" t="s">
-        <v>288</v>
-      </c>
-      <c r="W62" t="s">
-        <v>289</v>
-      </c>
-      <c r="X62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA62">
-        <v>170</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC62">
-        <v>172</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE62">
-        <v>170</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG62">
-        <v>170</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI62">
-        <v>253</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO62">
-        <v>170</v>
-      </c>
-      <c r="AP62" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ62">
-        <v>172</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS62">
-        <v>170</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU62">
-        <v>170</v>
-      </c>
-      <c r="AV62" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW62">
-        <v>253</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>289</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA62" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB62" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC62">
-        <v>170</v>
-      </c>
-      <c r="BD62" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE62">
-        <v>172</v>
-      </c>
-      <c r="BF62" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG62">
-        <v>170</v>
-      </c>
-      <c r="BH62" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI62">
-        <v>170</v>
-      </c>
-      <c r="BJ62" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK62">
-        <v>253</v>
-      </c>
-      <c r="BL62" t="s">
-        <v>290</v>
-      </c>
-      <c r="BM62" t="s">
-        <v>291</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -14123,196 +13736,13 @@
       <c r="C63" t="s">
         <v>73</v>
       </c>
-      <c r="D63">
-        <v>580</v>
-      </c>
       <c r="E63" t="s">
-        <v>299</v>
-      </c>
-      <c r="F63" t="s">
-        <v>287</v>
-      </c>
-      <c r="G63">
-        <v>579</v>
-      </c>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s">
-        <v>77</v>
-      </c>
-      <c r="K63" t="s">
-        <v>78</v>
-      </c>
-      <c r="L63" t="s">
-        <v>92</v>
-      </c>
-      <c r="M63">
-        <v>170</v>
-      </c>
-      <c r="N63" t="s">
-        <v>93</v>
-      </c>
-      <c r="O63">
-        <v>172</v>
-      </c>
-      <c r="P63" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q63">
-        <v>170</v>
-      </c>
-      <c r="R63" t="s">
-        <v>92</v>
-      </c>
-      <c r="S63">
-        <v>170</v>
-      </c>
-      <c r="T63" t="s">
-        <v>81</v>
-      </c>
-      <c r="U63">
-        <v>253</v>
-      </c>
-      <c r="V63" t="s">
-        <v>300</v>
-      </c>
-      <c r="W63" t="s">
-        <v>301</v>
-      </c>
-      <c r="X63" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA63">
-        <v>170</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC63">
-        <v>172</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE63">
-        <v>170</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG63">
-        <v>170</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI63">
-        <v>253</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>300</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM63" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO63">
-        <v>170</v>
-      </c>
-      <c r="AP63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ63">
-        <v>172</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS63">
-        <v>170</v>
-      </c>
-      <c r="AT63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU63">
-        <v>170</v>
-      </c>
-      <c r="AV63" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW63">
-        <v>253</v>
-      </c>
-      <c r="AX63" t="s">
-        <v>300</v>
-      </c>
-      <c r="AY63" t="s">
-        <v>301</v>
-      </c>
-      <c r="AZ63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA63" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB63" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC63">
-        <v>170</v>
-      </c>
-      <c r="BD63" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE63">
-        <v>172</v>
-      </c>
-      <c r="BF63" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG63">
-        <v>170</v>
-      </c>
-      <c r="BH63" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI63">
-        <v>170</v>
-      </c>
-      <c r="BJ63" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK63">
-        <v>253</v>
-      </c>
-      <c r="BL63" t="s">
-        <v>302</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -14320,196 +13750,13 @@
       <c r="C64" t="s">
         <v>73</v>
       </c>
-      <c r="D64">
-        <v>584</v>
-      </c>
       <c r="E64" t="s">
-        <v>293</v>
-      </c>
-      <c r="F64" t="s">
-        <v>287</v>
-      </c>
-      <c r="G64">
-        <v>579</v>
-      </c>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s">
-        <v>77</v>
-      </c>
-      <c r="K64" t="s">
-        <v>78</v>
-      </c>
-      <c r="L64" t="s">
-        <v>92</v>
-      </c>
-      <c r="M64">
-        <v>170</v>
-      </c>
-      <c r="N64" t="s">
-        <v>93</v>
-      </c>
-      <c r="O64">
-        <v>172</v>
-      </c>
-      <c r="P64" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q64">
-        <v>170</v>
-      </c>
-      <c r="R64" t="s">
-        <v>92</v>
-      </c>
-      <c r="S64">
-        <v>170</v>
-      </c>
-      <c r="T64" t="s">
-        <v>81</v>
-      </c>
-      <c r="U64">
-        <v>253</v>
-      </c>
-      <c r="V64" t="s">
-        <v>294</v>
-      </c>
-      <c r="W64" t="s">
-        <v>295</v>
-      </c>
-      <c r="X64" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA64">
-        <v>170</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC64">
-        <v>172</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE64">
-        <v>170</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG64">
-        <v>170</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI64">
-        <v>253</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN64" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO64">
-        <v>170</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ64">
-        <v>172</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS64">
-        <v>170</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU64">
-        <v>170</v>
-      </c>
-      <c r="AV64" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW64">
-        <v>253</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>294</v>
-      </c>
-      <c r="AY64" t="s">
-        <v>295</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA64" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB64" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC64">
-        <v>170</v>
-      </c>
-      <c r="BD64" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE64">
-        <v>172</v>
-      </c>
-      <c r="BF64" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG64">
-        <v>170</v>
-      </c>
-      <c r="BH64" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI64">
-        <v>170</v>
-      </c>
-      <c r="BJ64" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK64">
-        <v>253</v>
-      </c>
-      <c r="BL64" t="s">
-        <v>296</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -14517,196 +13764,13 @@
       <c r="C65" t="s">
         <v>73</v>
       </c>
-      <c r="D65">
-        <v>585</v>
-      </c>
       <c r="E65" t="s">
-        <v>335</v>
-      </c>
-      <c r="F65" t="s">
-        <v>292</v>
-      </c>
-      <c r="G65">
-        <v>584</v>
-      </c>
-      <c r="H65" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s">
-        <v>78</v>
-      </c>
-      <c r="L65" t="s">
-        <v>92</v>
-      </c>
-      <c r="M65">
-        <v>170</v>
-      </c>
-      <c r="N65" t="s">
-        <v>93</v>
-      </c>
-      <c r="O65">
-        <v>172</v>
-      </c>
-      <c r="P65" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q65">
-        <v>170</v>
-      </c>
-      <c r="R65" t="s">
-        <v>92</v>
-      </c>
-      <c r="S65">
-        <v>170</v>
-      </c>
-      <c r="T65" t="s">
-        <v>81</v>
-      </c>
-      <c r="U65">
-        <v>253</v>
-      </c>
-      <c r="V65" t="s">
-        <v>336</v>
-      </c>
-      <c r="W65" t="s">
-        <v>337</v>
-      </c>
-      <c r="X65" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA65">
-        <v>170</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC65">
-        <v>172</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE65">
-        <v>170</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG65">
-        <v>170</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI65">
-        <v>253</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO65">
-        <v>170</v>
-      </c>
-      <c r="AP65" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ65">
-        <v>172</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS65">
-        <v>170</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU65">
-        <v>170</v>
-      </c>
-      <c r="AV65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW65">
-        <v>253</v>
-      </c>
-      <c r="AX65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AY65" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ65" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA65" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB65" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC65">
-        <v>170</v>
-      </c>
-      <c r="BD65" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE65">
-        <v>172</v>
-      </c>
-      <c r="BF65" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG65">
-        <v>170</v>
-      </c>
-      <c r="BH65" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI65">
-        <v>170</v>
-      </c>
-      <c r="BJ65" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK65">
-        <v>253</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM65" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -14714,197 +13778,1443 @@
       <c r="C66" t="s">
         <v>73</v>
       </c>
-      <c r="D66">
+      <c r="E66" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>374</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71">
+        <v>579</v>
+      </c>
+      <c r="E71" t="s">
+        <v>362</v>
+      </c>
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s">
+        <v>78</v>
+      </c>
+      <c r="L71" t="s">
+        <v>92</v>
+      </c>
+      <c r="M71">
+        <v>170</v>
+      </c>
+      <c r="N71" t="s">
+        <v>93</v>
+      </c>
+      <c r="O71">
+        <v>172</v>
+      </c>
+      <c r="P71" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q71">
+        <v>170</v>
+      </c>
+      <c r="R71" t="s">
+        <v>92</v>
+      </c>
+      <c r="S71">
+        <v>170</v>
+      </c>
+      <c r="T71" t="s">
+        <v>81</v>
+      </c>
+      <c r="U71">
+        <v>253</v>
+      </c>
+      <c r="V71" t="s">
+        <v>363</v>
+      </c>
+      <c r="W71" t="s">
+        <v>364</v>
+      </c>
+      <c r="X71" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA71">
+        <v>170</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC71">
+        <v>172</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE71">
+        <v>170</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG71">
+        <v>170</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI71">
+        <v>253</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO71">
+        <v>170</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ71">
+        <v>172</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS71">
+        <v>170</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU71">
+        <v>170</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW71">
+        <v>253</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>363</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC71">
+        <v>170</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE71">
+        <v>172</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG71">
+        <v>170</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI71">
+        <v>170</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK71">
+        <v>253</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>365</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72">
+        <v>581</v>
+      </c>
+      <c r="E72" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" t="s">
+        <v>287</v>
+      </c>
+      <c r="G72">
+        <v>579</v>
+      </c>
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s">
+        <v>78</v>
+      </c>
+      <c r="L72" t="s">
+        <v>92</v>
+      </c>
+      <c r="M72">
+        <v>170</v>
+      </c>
+      <c r="N72" t="s">
+        <v>93</v>
+      </c>
+      <c r="O72">
+        <v>172</v>
+      </c>
+      <c r="P72" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q72">
+        <v>170</v>
+      </c>
+      <c r="R72" t="s">
+        <v>92</v>
+      </c>
+      <c r="S72">
+        <v>170</v>
+      </c>
+      <c r="T72" t="s">
+        <v>81</v>
+      </c>
+      <c r="U72">
+        <v>253</v>
+      </c>
+      <c r="V72" t="s">
+        <v>312</v>
+      </c>
+      <c r="W72" t="s">
+        <v>313</v>
+      </c>
+      <c r="X72" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA72">
+        <v>170</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC72">
+        <v>172</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE72">
+        <v>170</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG72">
+        <v>170</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI72">
+        <v>253</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO72">
+        <v>170</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ72">
+        <v>172</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS72">
+        <v>170</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU72">
+        <v>170</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW72">
+        <v>253</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC72">
+        <v>170</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE72">
+        <v>172</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG72">
+        <v>170</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI72">
+        <v>170</v>
+      </c>
+      <c r="BJ72" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK72">
+        <v>253</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73">
+        <v>582</v>
+      </c>
+      <c r="E73" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73">
+        <v>579</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" t="s">
+        <v>92</v>
+      </c>
+      <c r="M73">
+        <v>170</v>
+      </c>
+      <c r="N73" t="s">
+        <v>93</v>
+      </c>
+      <c r="O73">
+        <v>172</v>
+      </c>
+      <c r="P73" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q73">
+        <v>170</v>
+      </c>
+      <c r="R73" t="s">
+        <v>92</v>
+      </c>
+      <c r="S73">
+        <v>170</v>
+      </c>
+      <c r="T73" t="s">
+        <v>81</v>
+      </c>
+      <c r="U73">
+        <v>253</v>
+      </c>
+      <c r="V73" t="s">
+        <v>288</v>
+      </c>
+      <c r="W73" t="s">
+        <v>289</v>
+      </c>
+      <c r="X73" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA73">
+        <v>170</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC73">
+        <v>172</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE73">
+        <v>170</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG73">
+        <v>170</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI73">
+        <v>253</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO73">
+        <v>170</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ73">
+        <v>172</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS73">
+        <v>170</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU73">
+        <v>170</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW73">
+        <v>253</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC73">
+        <v>170</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE73">
+        <v>172</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG73">
+        <v>170</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI73">
+        <v>170</v>
+      </c>
+      <c r="BJ73" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK73">
+        <v>253</v>
+      </c>
+      <c r="BL73" t="s">
+        <v>290</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>298</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>580</v>
+      </c>
+      <c r="E74" t="s">
+        <v>299</v>
+      </c>
+      <c r="F74" t="s">
+        <v>287</v>
+      </c>
+      <c r="G74">
+        <v>579</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s">
+        <v>78</v>
+      </c>
+      <c r="L74" t="s">
+        <v>92</v>
+      </c>
+      <c r="M74">
+        <v>170</v>
+      </c>
+      <c r="N74" t="s">
+        <v>93</v>
+      </c>
+      <c r="O74">
+        <v>172</v>
+      </c>
+      <c r="P74" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q74">
+        <v>170</v>
+      </c>
+      <c r="R74" t="s">
+        <v>92</v>
+      </c>
+      <c r="S74">
+        <v>170</v>
+      </c>
+      <c r="T74" t="s">
+        <v>81</v>
+      </c>
+      <c r="U74">
+        <v>253</v>
+      </c>
+      <c r="V74" t="s">
+        <v>300</v>
+      </c>
+      <c r="W74" t="s">
+        <v>301</v>
+      </c>
+      <c r="X74" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA74">
+        <v>170</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC74">
+        <v>172</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE74">
+        <v>170</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG74">
+        <v>170</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI74">
+        <v>253</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO74">
+        <v>170</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ74">
+        <v>172</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS74">
+        <v>170</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU74">
+        <v>170</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW74">
+        <v>253</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA74" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC74">
+        <v>170</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE74">
+        <v>172</v>
+      </c>
+      <c r="BF74" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG74">
+        <v>170</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI74">
+        <v>170</v>
+      </c>
+      <c r="BJ74" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK74">
+        <v>253</v>
+      </c>
+      <c r="BL74" t="s">
+        <v>302</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>584</v>
+      </c>
+      <c r="E75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" t="s">
+        <v>287</v>
+      </c>
+      <c r="G75">
+        <v>579</v>
+      </c>
+      <c r="H75" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s">
+        <v>78</v>
+      </c>
+      <c r="L75" t="s">
+        <v>92</v>
+      </c>
+      <c r="M75">
+        <v>170</v>
+      </c>
+      <c r="N75" t="s">
+        <v>93</v>
+      </c>
+      <c r="O75">
+        <v>172</v>
+      </c>
+      <c r="P75" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q75">
+        <v>170</v>
+      </c>
+      <c r="R75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S75">
+        <v>170</v>
+      </c>
+      <c r="T75" t="s">
+        <v>81</v>
+      </c>
+      <c r="U75">
+        <v>253</v>
+      </c>
+      <c r="V75" t="s">
+        <v>294</v>
+      </c>
+      <c r="W75" t="s">
+        <v>295</v>
+      </c>
+      <c r="X75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA75">
+        <v>170</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC75">
+        <v>172</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE75">
+        <v>170</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG75">
+        <v>170</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI75">
+        <v>253</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO75">
+        <v>170</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ75">
+        <v>172</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS75">
+        <v>170</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU75">
+        <v>170</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW75">
+        <v>253</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>294</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC75">
+        <v>170</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE75">
+        <v>172</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG75">
+        <v>170</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI75">
+        <v>170</v>
+      </c>
+      <c r="BJ75" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK75">
+        <v>253</v>
+      </c>
+      <c r="BL75" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>340</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76">
+        <v>585</v>
+      </c>
+      <c r="E76" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" t="s">
+        <v>292</v>
+      </c>
+      <c r="G76">
+        <v>584</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s">
+        <v>78</v>
+      </c>
+      <c r="L76" t="s">
+        <v>92</v>
+      </c>
+      <c r="M76">
+        <v>170</v>
+      </c>
+      <c r="N76" t="s">
+        <v>93</v>
+      </c>
+      <c r="O76">
+        <v>172</v>
+      </c>
+      <c r="P76" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q76">
+        <v>170</v>
+      </c>
+      <c r="R76" t="s">
+        <v>92</v>
+      </c>
+      <c r="S76">
+        <v>170</v>
+      </c>
+      <c r="T76" t="s">
+        <v>81</v>
+      </c>
+      <c r="U76">
+        <v>253</v>
+      </c>
+      <c r="V76" t="s">
+        <v>342</v>
+      </c>
+      <c r="W76" t="s">
+        <v>343</v>
+      </c>
+      <c r="X76" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA76">
+        <v>170</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC76">
+        <v>172</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE76">
+        <v>170</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG76">
+        <v>170</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI76">
+        <v>253</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO76">
+        <v>170</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ76">
+        <v>172</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS76">
+        <v>170</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU76">
+        <v>170</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW76">
+        <v>253</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC76">
+        <v>170</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE76">
+        <v>172</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG76">
+        <v>170</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI76">
+        <v>170</v>
+      </c>
+      <c r="BJ76" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK76">
+        <v>253</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>344</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77">
         <v>583</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E77" t="s">
         <v>305</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F77" t="s">
         <v>287</v>
       </c>
-      <c r="G66">
+      <c r="G77">
         <v>579</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H77" t="s">
         <v>75</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I77" t="s">
         <v>76</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J77" t="s">
         <v>77</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K77" t="s">
         <v>78</v>
       </c>
-      <c r="L66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M66">
-        <v>170</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="L77" t="s">
+        <v>92</v>
+      </c>
+      <c r="M77">
+        <v>170</v>
+      </c>
+      <c r="N77" t="s">
         <v>93</v>
       </c>
-      <c r="O66">
+      <c r="O77">
         <v>172</v>
       </c>
-      <c r="P66" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q66">
-        <v>170</v>
-      </c>
-      <c r="R66" t="s">
-        <v>92</v>
-      </c>
-      <c r="S66">
-        <v>170</v>
-      </c>
-      <c r="T66" t="s">
-        <v>81</v>
-      </c>
-      <c r="U66">
-        <v>253</v>
-      </c>
-      <c r="V66" t="s">
+      <c r="P77" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q77">
+        <v>170</v>
+      </c>
+      <c r="R77" t="s">
+        <v>92</v>
+      </c>
+      <c r="S77">
+        <v>170</v>
+      </c>
+      <c r="T77" t="s">
+        <v>81</v>
+      </c>
+      <c r="U77">
+        <v>253</v>
+      </c>
+      <c r="V77" t="s">
         <v>306</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W77" t="s">
         <v>307</v>
       </c>
-      <c r="X66" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA66">
-        <v>170</v>
-      </c>
-      <c r="AB66" t="s">
+      <c r="X77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA77">
+        <v>170</v>
+      </c>
+      <c r="AB77" t="s">
         <v>93</v>
       </c>
-      <c r="AC66">
+      <c r="AC77">
         <v>172</v>
       </c>
-      <c r="AD66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE66">
-        <v>170</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG66">
-        <v>170</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI66">
-        <v>253</v>
-      </c>
-      <c r="AJ66" t="s">
+      <c r="AD77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE77">
+        <v>170</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG77">
+        <v>170</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI77">
+        <v>253</v>
+      </c>
+      <c r="AJ77" t="s">
         <v>306</v>
       </c>
-      <c r="AK66" t="s">
+      <c r="AK77" t="s">
         <v>307</v>
       </c>
-      <c r="AL66" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO66">
-        <v>170</v>
-      </c>
-      <c r="AP66" t="s">
+      <c r="AL77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO77">
+        <v>170</v>
+      </c>
+      <c r="AP77" t="s">
         <v>93</v>
       </c>
-      <c r="AQ66">
+      <c r="AQ77">
         <v>172</v>
       </c>
-      <c r="AR66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS66">
-        <v>170</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU66">
-        <v>170</v>
-      </c>
-      <c r="AV66" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW66">
-        <v>253</v>
-      </c>
-      <c r="AX66" t="s">
+      <c r="AR77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS77">
+        <v>170</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU77">
+        <v>170</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW77">
+        <v>253</v>
+      </c>
+      <c r="AX77" t="s">
         <v>306</v>
       </c>
-      <c r="AY66" t="s">
+      <c r="AY77" t="s">
         <v>307</v>
       </c>
-      <c r="AZ66" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA66" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC66">
-        <v>170</v>
-      </c>
-      <c r="BD66" t="s">
+      <c r="AZ77" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA77" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC77">
+        <v>170</v>
+      </c>
+      <c r="BD77" t="s">
         <v>93</v>
       </c>
-      <c r="BE66">
+      <c r="BE77">
         <v>172</v>
       </c>
-      <c r="BF66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG66">
-        <v>170</v>
-      </c>
-      <c r="BH66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI66">
-        <v>170</v>
-      </c>
-      <c r="BJ66" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK66">
-        <v>253</v>
-      </c>
-      <c r="BL66" t="s">
+      <c r="BF77" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG77">
+        <v>170</v>
+      </c>
+      <c r="BH77" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI77">
+        <v>170</v>
+      </c>
+      <c r="BJ77" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK77">
+        <v>253</v>
+      </c>
+      <c r="BL77" t="s">
         <v>308</v>
       </c>
-      <c r="BM66" t="s">
+      <c r="BM77" t="s">
         <v>309</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS66" xr:uid="{C547AB86-6D52-4FA8-9A18-6E77756F2F15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS66">
-      <sortCondition ref="E1:E66"/>
+  <autoFilter ref="A1:BS77" xr:uid="{62C26A9E-18F6-43D3-B833-E38A345E8A78}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS77">
+      <sortCondition ref="E1:E77"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF5E66A9-D800-4153-8767-51C6C5FDD12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7EAD1F42-D730-4317-BA16-E006A5848E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5429DEDC-0609-4A6D-BD14-E6C69306B928}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA42D333-A09D-40DA-ABF8-AA07B208BC48}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-KG-kadastr" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="395">
   <si>
     <t>objectURI</t>
   </si>
@@ -1153,6 +1153,12 @@
     <t>LANDMETEN_MEETPUNT</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/89970413-24e9-4574-a5df-d6a572d13fac</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6ece8cab-5b41-4d02-af27-9b797d2184bd</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/cc655fdf-8506-4a9b-896e-8d7e54729dd2</t>
   </si>
   <si>
@@ -1169,6 +1175,9 @@
   </si>
   <si>
     <t>LANDMETEN_COGOPOINT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/627e5ee5-15c3-45a1-850c-ebeccdbae48e</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/b18ce95e-3bb4-44df-bbf3-c0361795f4eb</t>
@@ -2058,11 +2067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C26A9E-18F6-43D3-B833-E38A345E8A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B398B403-7627-437D-B9AB-4F7A45842C5E}">
   <dimension ref="A1:BS77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:BS77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13697,10 +13706,184 @@
       <c r="E60" t="s">
         <v>371</v>
       </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" t="s">
+        <v>125</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+      <c r="N60" t="s">
+        <v>125</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q60">
+        <v>7</v>
+      </c>
+      <c r="R60" t="s">
+        <v>125</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60" t="s">
+        <v>125</v>
+      </c>
+      <c r="U60">
+        <v>7</v>
+      </c>
+      <c r="V60" t="s">
+        <v>82</v>
+      </c>
+      <c r="W60" t="s">
+        <v>83</v>
+      </c>
+      <c r="X60" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA60">
+        <v>7</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC60">
+        <v>7</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE60">
+        <v>7</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG60">
+        <v>7</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI60">
+        <v>7</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO60">
+        <v>7</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ60">
+        <v>7</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS60">
+        <v>7</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC60">
+        <v>7</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE60">
+        <v>7</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG60">
+        <v>7</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI60">
+        <v>7</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK60">
+        <v>7</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -13709,12 +13892,186 @@
         <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>377</v>
+        <v>379</v>
+      </c>
+      <c r="H61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" t="s">
+        <v>125</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
+      </c>
+      <c r="N61" t="s">
+        <v>125</v>
+      </c>
+      <c r="O61">
+        <v>7</v>
+      </c>
+      <c r="P61" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="R61" t="s">
+        <v>125</v>
+      </c>
+      <c r="S61">
+        <v>7</v>
+      </c>
+      <c r="T61" t="s">
+        <v>125</v>
+      </c>
+      <c r="U61">
+        <v>7</v>
+      </c>
+      <c r="V61" t="s">
+        <v>82</v>
+      </c>
+      <c r="W61" t="s">
+        <v>83</v>
+      </c>
+      <c r="X61" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA61">
+        <v>7</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC61">
+        <v>7</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE61">
+        <v>7</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG61">
+        <v>7</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI61">
+        <v>7</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO61">
+        <v>7</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ61">
+        <v>7</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS61">
+        <v>7</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU61">
+        <v>7</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE61">
+        <v>7</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG61">
+        <v>7</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI61">
+        <v>7</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK61">
+        <v>7</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -13723,12 +14080,186 @@
         <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>391</v>
+        <v>394</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" t="s">
+        <v>125</v>
+      </c>
+      <c r="M62">
+        <v>7</v>
+      </c>
+      <c r="N62" t="s">
+        <v>125</v>
+      </c>
+      <c r="O62">
+        <v>7</v>
+      </c>
+      <c r="P62" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="R62" t="s">
+        <v>125</v>
+      </c>
+      <c r="S62">
+        <v>7</v>
+      </c>
+      <c r="T62" t="s">
+        <v>125</v>
+      </c>
+      <c r="U62">
+        <v>7</v>
+      </c>
+      <c r="V62" t="s">
+        <v>82</v>
+      </c>
+      <c r="W62" t="s">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA62">
+        <v>7</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC62">
+        <v>7</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE62">
+        <v>7</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG62">
+        <v>7</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI62">
+        <v>7</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO62">
+        <v>7</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ62">
+        <v>7</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS62">
+        <v>7</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE62">
+        <v>7</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG62">
+        <v>7</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI62">
+        <v>7</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK62">
+        <v>7</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -13737,12 +14268,186 @@
         <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>387</v>
+        <v>390</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s">
+        <v>78</v>
+      </c>
+      <c r="L63" t="s">
+        <v>125</v>
+      </c>
+      <c r="M63">
+        <v>7</v>
+      </c>
+      <c r="N63" t="s">
+        <v>125</v>
+      </c>
+      <c r="O63">
+        <v>7</v>
+      </c>
+      <c r="P63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q63">
+        <v>7</v>
+      </c>
+      <c r="R63" t="s">
+        <v>125</v>
+      </c>
+      <c r="S63">
+        <v>7</v>
+      </c>
+      <c r="T63" t="s">
+        <v>125</v>
+      </c>
+      <c r="U63">
+        <v>7</v>
+      </c>
+      <c r="V63" t="s">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s">
+        <v>83</v>
+      </c>
+      <c r="X63" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA63">
+        <v>7</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC63">
+        <v>7</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE63">
+        <v>7</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG63">
+        <v>7</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI63">
+        <v>7</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO63">
+        <v>7</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ63">
+        <v>7</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS63">
+        <v>7</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE63">
+        <v>7</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG63">
+        <v>7</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI63">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK63">
+        <v>7</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -13751,12 +14456,186 @@
         <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>385</v>
+        <v>388</v>
+      </c>
+      <c r="H64" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" t="s">
+        <v>125</v>
+      </c>
+      <c r="M64">
+        <v>7</v>
+      </c>
+      <c r="N64" t="s">
+        <v>125</v>
+      </c>
+      <c r="O64">
+        <v>7</v>
+      </c>
+      <c r="P64" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q64">
+        <v>7</v>
+      </c>
+      <c r="R64" t="s">
+        <v>125</v>
+      </c>
+      <c r="S64">
+        <v>7</v>
+      </c>
+      <c r="T64" t="s">
+        <v>125</v>
+      </c>
+      <c r="U64">
+        <v>7</v>
+      </c>
+      <c r="V64" t="s">
+        <v>82</v>
+      </c>
+      <c r="W64" t="s">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA64">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC64">
+        <v>7</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE64">
+        <v>7</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG64">
+        <v>7</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI64">
+        <v>7</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO64">
+        <v>7</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ64">
+        <v>7</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS64">
+        <v>7</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC64">
+        <v>7</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE64">
+        <v>7</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG64">
+        <v>7</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI64">
+        <v>7</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK64">
+        <v>7</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -13765,12 +14644,186 @@
         <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" t="s">
+        <v>125</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65" t="s">
+        <v>125</v>
+      </c>
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q65">
+        <v>7</v>
+      </c>
+      <c r="R65" t="s">
+        <v>125</v>
+      </c>
+      <c r="S65">
+        <v>7</v>
+      </c>
+      <c r="T65" t="s">
+        <v>125</v>
+      </c>
+      <c r="U65">
+        <v>7</v>
+      </c>
+      <c r="V65" t="s">
+        <v>82</v>
+      </c>
+      <c r="W65" t="s">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA65">
+        <v>7</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC65">
+        <v>7</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE65">
+        <v>7</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG65">
+        <v>7</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI65">
+        <v>7</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO65">
+        <v>7</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ65">
+        <v>7</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS65">
+        <v>7</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW65">
+        <v>7</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA65" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC65">
+        <v>7</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE65">
+        <v>7</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG65">
+        <v>7</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI65">
+        <v>7</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK65">
+        <v>7</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -13779,12 +14832,186 @@
         <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>381</v>
+        <v>383</v>
+      </c>
+      <c r="H66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s">
+        <v>78</v>
+      </c>
+      <c r="L66" t="s">
+        <v>125</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="N66" t="s">
+        <v>125</v>
+      </c>
+      <c r="O66">
+        <v>7</v>
+      </c>
+      <c r="P66" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q66">
+        <v>7</v>
+      </c>
+      <c r="R66" t="s">
+        <v>125</v>
+      </c>
+      <c r="S66">
+        <v>7</v>
+      </c>
+      <c r="T66" t="s">
+        <v>125</v>
+      </c>
+      <c r="U66">
+        <v>7</v>
+      </c>
+      <c r="V66" t="s">
+        <v>82</v>
+      </c>
+      <c r="W66" t="s">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA66">
+        <v>85</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC66">
+        <v>85</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE66">
+        <v>85</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG66">
+        <v>85</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI66">
+        <v>85</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO66">
+        <v>7</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ66">
+        <v>7</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS66">
+        <v>7</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ66" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA66" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE66">
+        <v>7</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG66">
+        <v>7</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI66">
+        <v>7</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK66">
+        <v>7</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -13793,7 +15020,181 @@
         <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>383</v>
+        <v>386</v>
+      </c>
+      <c r="H67" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s">
+        <v>78</v>
+      </c>
+      <c r="L67" t="s">
+        <v>125</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+      <c r="N67" t="s">
+        <v>125</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="P67" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67" t="s">
+        <v>125</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67" t="s">
+        <v>125</v>
+      </c>
+      <c r="U67">
+        <v>7</v>
+      </c>
+      <c r="V67" t="s">
+        <v>82</v>
+      </c>
+      <c r="W67" t="s">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA67">
+        <v>7</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC67">
+        <v>7</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE67">
+        <v>7</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG67">
+        <v>7</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI67">
+        <v>7</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO67">
+        <v>7</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ67">
+        <v>7</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS67">
+        <v>7</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA67" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB67" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE67">
+        <v>7</v>
+      </c>
+      <c r="BF67" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG67">
+        <v>7</v>
+      </c>
+      <c r="BH67" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI67">
+        <v>7</v>
+      </c>
+      <c r="BJ67" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK67">
+        <v>7</v>
+      </c>
+      <c r="BL67" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:65" x14ac:dyDescent="0.35">
@@ -13809,6 +15210,180 @@
       <c r="E68" t="s">
         <v>375</v>
       </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s">
+        <v>78</v>
+      </c>
+      <c r="L68" t="s">
+        <v>125</v>
+      </c>
+      <c r="M68">
+        <v>7</v>
+      </c>
+      <c r="N68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O68">
+        <v>7</v>
+      </c>
+      <c r="P68" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q68">
+        <v>7</v>
+      </c>
+      <c r="R68" t="s">
+        <v>125</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68" t="s">
+        <v>125</v>
+      </c>
+      <c r="U68">
+        <v>7</v>
+      </c>
+      <c r="V68" t="s">
+        <v>82</v>
+      </c>
+      <c r="W68" t="s">
+        <v>83</v>
+      </c>
+      <c r="X68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS68">
+        <v>1</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU68">
+        <v>1</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW68">
+        <v>1</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>377</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC68">
+        <v>1</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE68">
+        <v>1</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG68">
+        <v>1</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI68">
+        <v>1</v>
+      </c>
+      <c r="BJ68" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK68">
+        <v>1</v>
+      </c>
+      <c r="BL68" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="69" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -13823,10 +15398,184 @@
       <c r="E69" t="s">
         <v>373</v>
       </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s">
+        <v>78</v>
+      </c>
+      <c r="L69" t="s">
+        <v>125</v>
+      </c>
+      <c r="M69">
+        <v>7</v>
+      </c>
+      <c r="N69" t="s">
+        <v>125</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="P69" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q69">
+        <v>7</v>
+      </c>
+      <c r="R69" t="s">
+        <v>125</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69" t="s">
+        <v>125</v>
+      </c>
+      <c r="U69">
+        <v>7</v>
+      </c>
+      <c r="V69" t="s">
+        <v>82</v>
+      </c>
+      <c r="W69" t="s">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA69">
+        <v>7</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC69">
+        <v>7</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE69">
+        <v>7</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG69">
+        <v>7</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI69">
+        <v>7</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO69">
+        <v>7</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ69">
+        <v>7</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS69">
+        <v>7</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA69" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE69">
+        <v>7</v>
+      </c>
+      <c r="BF69" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG69">
+        <v>7</v>
+      </c>
+      <c r="BH69" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI69">
+        <v>7</v>
+      </c>
+      <c r="BJ69" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK69">
+        <v>7</v>
+      </c>
+      <c r="BL69" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="70" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -13835,7 +15584,181 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s">
+        <v>78</v>
+      </c>
+      <c r="L70" t="s">
+        <v>125</v>
+      </c>
+      <c r="M70">
+        <v>7</v>
+      </c>
+      <c r="N70" t="s">
+        <v>125</v>
+      </c>
+      <c r="O70">
+        <v>7</v>
+      </c>
+      <c r="P70" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q70">
+        <v>7</v>
+      </c>
+      <c r="R70" t="s">
+        <v>125</v>
+      </c>
+      <c r="S70">
+        <v>7</v>
+      </c>
+      <c r="T70" t="s">
+        <v>125</v>
+      </c>
+      <c r="U70">
+        <v>7</v>
+      </c>
+      <c r="V70" t="s">
+        <v>82</v>
+      </c>
+      <c r="W70" t="s">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU70">
+        <v>1</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW70">
+        <v>1</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC70">
+        <v>1</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE70">
+        <v>1</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG70">
+        <v>1</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI70">
+        <v>1</v>
+      </c>
+      <c r="BJ70" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK70">
+        <v>1</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:65" x14ac:dyDescent="0.35">
@@ -15212,7 +17135,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS77" xr:uid="{62C26A9E-18F6-43D3-B833-E38A345E8A78}">
+  <autoFilter ref="A1:BS77" xr:uid="{B398B403-7627-437D-B9AB-4F7A45842C5E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS77">
       <sortCondition ref="E1:E77"/>
     </sortState>
